--- a/datafiles/WriteDataToExcel.xlsx
+++ b/datafiles/WriteDataToExcel.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="22">
   <si>
     <t>ProductName</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>2023/07/14 10:24:22</t>
+  </si>
+  <si>
+    <t>2023/07/14 11:03:28</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/datafiles/WriteDataToExcel.xlsx
+++ b/datafiles/WriteDataToExcel.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="23">
   <si>
     <t>ProductName</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>2023/07/14 11:03:28</t>
+  </si>
+  <si>
+    <t>2023/07/14 11:07:58</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
